--- a/Plots/word2vec feature sizes.xlsx
+++ b/Plots/word2vec feature sizes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\viswe\Desktop\Certificate in Machine Learning\CSML-1010\CSML1010-Project\Plots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{475BAA85-BFAE-4ACB-97F7-F1365F8E2AC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B710BEFB-DE24-48A2-A478-3D099AF6D67C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t>Feature Size</t>
   </si>
@@ -52,6 +52,42 @@
   </si>
   <si>
     <t>Feature Size Label</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>0 - World</t>
+  </si>
+  <si>
+    <t>1 - Sports</t>
+  </si>
+  <si>
+    <t>2 - Business</t>
+  </si>
+  <si>
+    <t>3 - Sci Tech</t>
+  </si>
+  <si>
+    <t>Micro-Avg Precision Recall</t>
+  </si>
+  <si>
+    <t>PR Area - CV Bag of Words</t>
+  </si>
+  <si>
+    <t>PR Area - CV Bag of Words - Top 10 percentile</t>
+  </si>
+  <si>
+    <t>PR Area - CV Bag of n-grams</t>
+  </si>
+  <si>
+    <t>PR Area - CV Bag of n-grams - Top 10 percentile</t>
+  </si>
+  <si>
+    <t>PR Area - CV Bag of chars</t>
+  </si>
+  <si>
+    <t>PR Area - CV Bag of chars - Top 10 percentile</t>
   </si>
 </sst>
 </file>
@@ -87,8 +123,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -540,6 +579,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1350843855"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -623,6 +663,1647 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Tw Cen MT" panose="020B0602020104020603" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Tw Cen MT" panose="020B0602020104020603" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PR Area - CV Bag of Words</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Tw Cen MT" panose="020B0602020104020603" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$29:$B$33</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0 - World</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1 - Sports</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2 - Business</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3 - Sci Tech</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Micro-Avg Precision Recall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$29:$C$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-68E2-4CCE-9E68-30320472F6D0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PR Area - CV Bag of Words - Top 10 percentile</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Tw Cen MT" panose="020B0602020104020603" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$29:$B$33</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0 - World</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1 - Sports</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2 - Business</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3 - Sci Tech</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Micro-Avg Precision Recall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$29:$D$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.86</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-68E2-4CCE-9E68-30320472F6D0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1319440479"/>
+        <c:axId val="1325538943"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1319440479"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Tw Cen MT" panose="020B0602020104020603" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1325538943"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1325538943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Tw Cen MT" panose="020B0602020104020603" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1319440479"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Tw Cen MT" panose="020B0602020104020603" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Tw Cen MT" panose="020B0602020104020603" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Tw Cen MT" panose="020B0602020104020603" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Tw Cen MT" panose="020B0602020104020603" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PR Area - CV Bag of n-grams</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Tw Cen MT" panose="020B0602020104020603" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$41:$B$45</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0 - World</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1 - Sports</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2 - Business</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3 - Sci Tech</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Micro-Avg Precision Recall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$41:$C$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-29F3-4217-993D-AE6C10A7B73F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PR Area - CV Bag of n-grams - Top 10 percentile</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Tw Cen MT" panose="020B0602020104020603" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$41:$B$45</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0 - World</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1 - Sports</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2 - Business</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3 - Sci Tech</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Micro-Avg Precision Recall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$41:$D$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-29F3-4217-993D-AE6C10A7B73F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1319440479"/>
+        <c:axId val="1325538943"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1319440479"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Tw Cen MT" panose="020B0602020104020603" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1325538943"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1325538943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.9"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Tw Cen MT" panose="020B0602020104020603" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1319440479"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.2"/>
+        <c:minorUnit val="4.0000000000000008E-2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Tw Cen MT" panose="020B0602020104020603" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Tw Cen MT" panose="020B0602020104020603" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Tw Cen MT" panose="020B0602020104020603" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Tw Cen MT" panose="020B0602020104020603" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PR Area - CV Bag of chars</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Tw Cen MT" panose="020B0602020104020603" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$56:$B$60</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0 - World</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1 - Sports</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2 - Business</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3 - Sci Tech</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Micro-Avg Precision Recall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$56:$C$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ACF8-4EBD-BEE1-DC3E15A1160B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PR Area - CV Bag of chars - Top 10 percentile</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Tw Cen MT" panose="020B0602020104020603" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$56:$B$60</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0 - World</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1 - Sports</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2 - Business</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3 - Sci Tech</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Micro-Avg Precision Recall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$56:$D$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.81</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-ACF8-4EBD-BEE1-DC3E15A1160B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1319440479"/>
+        <c:axId val="1325538943"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1319440479"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Tw Cen MT" panose="020B0602020104020603" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1325538943"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1325538943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Tw Cen MT" panose="020B0602020104020603" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1319440479"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.2"/>
+        <c:minorUnit val="4.0000000000000008E-2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Tw Cen MT" panose="020B0602020104020603" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Tw Cen MT" panose="020B0602020104020603" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -663,7 +2344,1627 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent5"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent5"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent5"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1199,6 +4500,118 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54036E2C-BF2A-4533-A315-444DB695088D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85662152-B6F1-4097-BB4F-3E8B34424168}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DA9184C-C71E-4D13-A467-B1FBCA00DC05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1470,10 +4883,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:D9"/>
+  <dimension ref="B3:D60"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="Q61" sqref="Q61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1559,6 +4972,204 @@
         <v>0.77</v>
       </c>
     </row>
+    <row r="28" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>0.88</v>
+      </c>
+      <c r="D29">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30">
+        <v>0.94</v>
+      </c>
+      <c r="D30">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31">
+        <v>0.78</v>
+      </c>
+      <c r="D31">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32">
+        <v>0.81</v>
+      </c>
+      <c r="D32">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33">
+        <v>0.85</v>
+      </c>
+      <c r="D33">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41">
+        <v>0.74</v>
+      </c>
+      <c r="D41">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42">
+        <v>0.82</v>
+      </c>
+      <c r="D42">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43">
+        <v>0.65</v>
+      </c>
+      <c r="D43">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44">
+        <v>0.64</v>
+      </c>
+      <c r="D44">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45">
+        <v>0.72</v>
+      </c>
+      <c r="D45">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B55" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56">
+        <v>0.83</v>
+      </c>
+      <c r="D56">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57">
+        <v>0.91</v>
+      </c>
+      <c r="D57">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58">
+        <v>0.71</v>
+      </c>
+      <c r="D58">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59">
+        <v>0.75</v>
+      </c>
+      <c r="D59">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B60" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60">
+        <v>0.8</v>
+      </c>
+      <c r="D60">
+        <v>0.81</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
